--- a/statics/xlsx/grafico.xlsx
+++ b/statics/xlsx/grafico.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Producto</t>
   </si>
@@ -22,13 +22,19 @@
     <t>Cantidad vendida</t>
   </si>
   <si>
-    <t>jugo de naranja</t>
-  </si>
-  <si>
-    <t>Ensalada Completa</t>
-  </si>
-  <si>
-    <t>Costeleta Argenta</t>
+    <t>Quilmes Cristal</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>Heineken</t>
+  </si>
+  <si>
+    <t>Fanta</t>
+  </si>
+  <si>
+    <t>Coca-cola</t>
   </si>
 </sst>
 </file>
@@ -112,8 +118,8 @@
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Productos mas vendidos entre 2014-02-01 y 2014-02-22 
-(Top 5 Productos)</a:t>
+              <a:t>Productos mas vendidos entre 2014-02-28 y 2014-03-04 
+(Top 5 Bebida)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -129,35 +135,47 @@
           <c:order val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>jugo de naranja</c:v>
+                  <c:v>Quilmes Cristal</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Ensalada Completa</c:v>
+                  <c:v>Sprite</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Costeleta Argenta</c:v>
+                  <c:v>Heineken</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fanta</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Coca-cola</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -510,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,7 +550,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -540,7 +558,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -548,7 +566,23 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
